--- a/assets/data/ItemConfig.xlsx
+++ b/assets/data/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55240B9D-CC0E-474A-8511-ECA20EEB54A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE99F8-9132-42BE-B99A-B45D193C9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2325" windowWidth="16560" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -953,10 +953,6 @@
     <t>lkey_lore_frostmourne</t>
   </si>
   <si>
-    <t>[]VarAttr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id:IATTR_STR,lo:5,hi:10</t>
   </si>
   <si>
@@ -1199,6 +1195,10 @@
   </si>
   <si>
     <t>ConstValue:1 RepeatCheck:true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]TVarAttr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1593,7 +1593,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>173</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1664,7 +1664,7 @@
         <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1681,7 +1681,7 @@
         <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1698,7 +1698,7 @@
         <v>174</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1715,7 +1715,7 @@
         <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1732,7 +1732,7 @@
         <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1749,7 +1749,7 @@
         <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1766,7 +1766,7 @@
         <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1783,7 +1783,7 @@
         <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1800,7 +1800,7 @@
         <v>174</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1817,7 +1817,7 @@
         <v>174</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1834,7 +1834,7 @@
         <v>174</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1851,7 +1851,7 @@
         <v>174</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1868,7 +1868,7 @@
         <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1885,7 +1885,7 @@
         <v>174</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1902,7 +1902,7 @@
         <v>174</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1919,7 +1919,7 @@
         <v>174</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>174</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1953,7 +1953,7 @@
         <v>174</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1970,7 +1970,7 @@
         <v>174</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1987,7 +1987,7 @@
         <v>174</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2004,7 +2004,7 @@
         <v>174</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>258</v>
@@ -2027,7 +2027,7 @@
         <v>174</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>259</v>
@@ -2050,7 +2050,7 @@
         <v>174</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>260</v>
@@ -2073,7 +2073,7 @@
         <v>174</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>261</v>
@@ -2096,7 +2096,7 @@
         <v>175</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2113,7 +2113,7 @@
         <v>175</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2130,7 +2130,7 @@
         <v>175</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>174</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>262</v>
@@ -2170,7 +2170,7 @@
         <v>175</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>263</v>
@@ -2193,7 +2193,7 @@
         <v>175</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>264</v>
@@ -2216,7 +2216,7 @@
         <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>265</v>
@@ -2239,7 +2239,7 @@
         <v>175</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>266</v>
@@ -2262,7 +2262,7 @@
         <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>267</v>
@@ -2285,7 +2285,7 @@
         <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2302,7 +2302,7 @@
         <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>268</v>
@@ -2325,7 +2325,7 @@
         <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>269</v>
@@ -2348,7 +2348,7 @@
         <v>175</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>270</v>
@@ -2371,7 +2371,7 @@
         <v>175</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>271</v>
@@ -2394,7 +2394,7 @@
         <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2411,7 +2411,7 @@
         <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2428,7 +2428,7 @@
         <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>272</v>
@@ -2451,7 +2451,7 @@
         <v>175</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>273</v>
@@ -2474,7 +2474,7 @@
         <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>274</v>
@@ -2497,7 +2497,7 @@
         <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>275</v>
@@ -2520,7 +2520,7 @@
         <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>276</v>
@@ -2543,7 +2543,7 @@
         <v>175</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>277</v>
@@ -2566,7 +2566,7 @@
         <v>175</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2583,7 +2583,7 @@
         <v>175</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2600,7 +2600,7 @@
         <v>175</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2617,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>278</v>
@@ -2640,7 +2640,7 @@
         <v>175</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>279</v>
@@ -2663,7 +2663,7 @@
         <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>280</v>
@@ -2686,7 +2686,7 @@
         <v>175</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>281</v>
@@ -2709,7 +2709,7 @@
         <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>282</v>
@@ -2732,7 +2732,7 @@
         <v>175</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>283</v>
@@ -2755,7 +2755,7 @@
         <v>175</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>284</v>
@@ -2778,7 +2778,7 @@
         <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>285</v>
@@ -2801,7 +2801,7 @@
         <v>175</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>286</v>
@@ -2824,7 +2824,7 @@
         <v>175</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>287</v>
@@ -2847,7 +2847,7 @@
         <v>175</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>288</v>
@@ -2870,7 +2870,7 @@
         <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>289</v>
@@ -2893,7 +2893,7 @@
         <v>176</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>290</v>
@@ -2916,7 +2916,7 @@
         <v>176</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>291</v>
@@ -2939,7 +2939,7 @@
         <v>176</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>292</v>
@@ -2962,7 +2962,7 @@
         <v>176</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>293</v>
@@ -2985,7 +2985,7 @@
         <v>176</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>294</v>
@@ -3008,7 +3008,7 @@
         <v>176</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>295</v>
@@ -3031,7 +3031,7 @@
         <v>176</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>296</v>
@@ -3054,7 +3054,7 @@
         <v>176</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>297</v>
@@ -3077,7 +3077,7 @@
         <v>176</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>298</v>
@@ -3100,7 +3100,7 @@
         <v>176</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>299</v>
@@ -3123,7 +3123,7 @@
         <v>176</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3140,7 +3140,7 @@
         <v>176</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3157,7 +3157,7 @@
         <v>176</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>300</v>
@@ -3180,7 +3180,7 @@
         <v>175</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>301</v>
@@ -3203,7 +3203,7 @@
         <v>175</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>302</v>
@@ -3226,7 +3226,7 @@
         <v>176</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>303</v>
@@ -3249,7 +3249,7 @@
         <v>176</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>304</v>

--- a/assets/data/ItemConfig.xlsx
+++ b/assets/data/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE99F8-9132-42BE-B99A-B45D193C9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF7A88-0256-44FC-8C3D-F9B9328FB011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2325" windowWidth="16560" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="605">
   <si>
     <t>SID</t>
   </si>
@@ -1200,6 +1200,660 @@
   <si>
     <t>[]TVarAttr</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITID_ARANS_COUNTER_SPELL_SCROLL</t>
+  </si>
+  <si>
+    <t>Ial0</t>
+  </si>
+  <si>
+    <t>ITID_SPEED_SCROLL</t>
+  </si>
+  <si>
+    <t>shas</t>
+  </si>
+  <si>
+    <t>ITID_FRENZY_SCROLL</t>
+  </si>
+  <si>
+    <t>Ifz0</t>
+  </si>
+  <si>
+    <t>ITID_DEFEND_SCROLL</t>
+  </si>
+  <si>
+    <t>spro</t>
+  </si>
+  <si>
+    <t>ITID_MANA_SCROLL</t>
+  </si>
+  <si>
+    <t>sman</t>
+  </si>
+  <si>
+    <t>ITID_HEAL_SCROLL</t>
+  </si>
+  <si>
+    <t>shea</t>
+  </si>
+  <si>
+    <t>ITID_ARMAGEDDON_SCROLL</t>
+  </si>
+  <si>
+    <t>I003</t>
+  </si>
+  <si>
+    <t>ITID_ROAR_SCROLL</t>
+  </si>
+  <si>
+    <t>sror</t>
+  </si>
+  <si>
+    <t>ITID_SLAYER_SCROLL</t>
+  </si>
+  <si>
+    <t>srrc</t>
+  </si>
+  <si>
+    <t>ITID_SANCTUARY_SCROLL</t>
+  </si>
+  <si>
+    <t>I006</t>
+  </si>
+  <si>
+    <t>ITID_SPELL_REFLECTION_SCROLL</t>
+  </si>
+  <si>
+    <t>I00M</t>
+  </si>
+  <si>
+    <t>ITID_MASS_DISPEL_SCROLL</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>ITID_MASS_TELEPORT_SCROLL</t>
+  </si>
+  <si>
+    <t>I002</t>
+  </si>
+  <si>
+    <t>ITID_CORRUPTION_SCROLL</t>
+  </si>
+  <si>
+    <t>I004</t>
+  </si>
+  <si>
+    <t>ITID_BANSHEE_SCROLL</t>
+  </si>
+  <si>
+    <t>I00C</t>
+  </si>
+  <si>
+    <t>ITID_WEAKEN_CURSE_SCROLL</t>
+  </si>
+  <si>
+    <t>I00D</t>
+  </si>
+  <si>
+    <t>ITID_LIFE_POTION</t>
+  </si>
+  <si>
+    <t>phea</t>
+  </si>
+  <si>
+    <t>ITID_MANA_POTION</t>
+  </si>
+  <si>
+    <t>pman</t>
+  </si>
+  <si>
+    <t>ITID_LEECH_POTION</t>
+  </si>
+  <si>
+    <t>I00A</t>
+  </si>
+  <si>
+    <t>ITID_LIFE_REGEN_POTION</t>
+  </si>
+  <si>
+    <t>I00Q</t>
+  </si>
+  <si>
+    <t>ITID_MANA_REGEN_POTION</t>
+  </si>
+  <si>
+    <t>I00R</t>
+  </si>
+  <si>
+    <t>ITID_MANA_SOURCE_POTION</t>
+  </si>
+  <si>
+    <t>I00E</t>
+  </si>
+  <si>
+    <t>ITID_TRANQUILITY_POTION</t>
+  </si>
+  <si>
+    <t>I00F</t>
+  </si>
+  <si>
+    <t>ITID_BIG_LIFE_POTION</t>
+  </si>
+  <si>
+    <t>I00I</t>
+  </si>
+  <si>
+    <t>ITID_ARCH_MAGE_POTION</t>
+  </si>
+  <si>
+    <t>I00J</t>
+  </si>
+  <si>
+    <t>ITID_COMBAT_MASTER_POTION</t>
+  </si>
+  <si>
+    <t>I00N</t>
+  </si>
+  <si>
+    <t>ITID_EMPERORS_NEW_POTION</t>
+  </si>
+  <si>
+    <t>I00O</t>
+  </si>
+  <si>
+    <t>ITID_TRANSFER_POTION</t>
+  </si>
+  <si>
+    <t>I01J</t>
+  </si>
+  <si>
+    <t>ITID_SHIELD_POTION</t>
+  </si>
+  <si>
+    <t>I00S</t>
+  </si>
+  <si>
+    <t>ITID_FORTRESS_POTION</t>
+  </si>
+  <si>
+    <t>I00V</t>
+  </si>
+  <si>
+    <t>ITID_DODGE_POTION</t>
+  </si>
+  <si>
+    <t>I00W</t>
+  </si>
+  <si>
+    <t>ITID_SMALL_INVUL_POTION</t>
+  </si>
+  <si>
+    <t>pnvl</t>
+  </si>
+  <si>
+    <t>ITID_INVUL_POTION</t>
+  </si>
+  <si>
+    <t>pnvu</t>
+  </si>
+  <si>
+    <t>ITID_STONE_SKIN_POTION</t>
+  </si>
+  <si>
+    <t>I008</t>
+  </si>
+  <si>
+    <t>ITID_SPELL_POWER_POTION</t>
+  </si>
+  <si>
+    <t>I00B</t>
+  </si>
+  <si>
+    <t>ITID_SPELL_MASTER_POTION</t>
+  </si>
+  <si>
+    <t>I00X</t>
+  </si>
+  <si>
+    <t>ITID_ARCANE_POTION</t>
+  </si>
+  <si>
+    <t>I01Q</t>
+  </si>
+  <si>
+    <t>ITID_ANGRY_CAST_POTION</t>
+  </si>
+  <si>
+    <t>I007</t>
+  </si>
+  <si>
+    <t>ITID_SPELL_PIERCE_POTION</t>
+  </si>
+  <si>
+    <t>I00Z</t>
+  </si>
+  <si>
+    <t>ITID_UNSTABLE_POTION</t>
+  </si>
+  <si>
+    <t>I010</t>
+  </si>
+  <si>
+    <t>ITID_AGILITY_POTION</t>
+  </si>
+  <si>
+    <t>I009</t>
+  </si>
+  <si>
+    <t>ITID_ACUTE_POTION</t>
+  </si>
+  <si>
+    <t>I011</t>
+  </si>
+  <si>
+    <t>ITID_DEXTERITY_POTION</t>
+  </si>
+  <si>
+    <t>I00Y</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_SIMPLE_HEAL</t>
+  </si>
+  <si>
+    <t>I01I</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_DISPEL</t>
+  </si>
+  <si>
+    <t>I01G</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_HEALING_WARD</t>
+  </si>
+  <si>
+    <t>I01F</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_INNER_FIRE</t>
+  </si>
+  <si>
+    <t>I01E</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_CHAIN_LIGHTNING</t>
+  </si>
+  <si>
+    <t>I005</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_DEATH_FINGER</t>
+  </si>
+  <si>
+    <t>I00G</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_SIPHON_LIFE</t>
+  </si>
+  <si>
+    <t>I020</t>
+  </si>
+  <si>
+    <t>ITID_CHARM_OF_DEMONIC_RUNE</t>
+  </si>
+  <si>
+    <t>I021</t>
+  </si>
+  <si>
+    <t>ITID_STRANGE_WAND</t>
+  </si>
+  <si>
+    <t>I023</t>
+  </si>
+  <si>
+    <t>IQL_COMMON</t>
+  </si>
+  <si>
+    <t>lkey_item_arans_counter_spell_scroll</t>
+  </si>
+  <si>
+    <t>lkey_item_speed_scroll</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_frenzy</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_protection</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_healing</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_armageddon</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_beasts</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_slaying</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_sanctuary</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_insulation</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_mass_teleportation</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_corruption</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_banshee</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_weakness</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_leech</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_regeneration</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_clarity_omen</t>
+  </si>
+  <si>
+    <t>lkey_item_source_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_tranquility</t>
+  </si>
+  <si>
+    <t>lkey_item_greater_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_archmage</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_battlemaster</t>
+  </si>
+  <si>
+    <t>lkey_item_emperors_new_vial</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_conversion</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_shield</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_rampart</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_dodge</t>
+  </si>
+  <si>
+    <t>lkey_item_lesser_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_stone_skin</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_magic_power</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_spell_mastery</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_arcane</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_raging_caster</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_spell_piercing</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_unstable_power</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_agility</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_keen</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_swiftness</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_simple_heal</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_healing_ward</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_inner_fire</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_chain_lightning</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_death_finger</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_siphon_life</t>
+  </si>
+  <si>
+    <t>lkey_item_demonic_rune</t>
+  </si>
+  <si>
+    <t>lkey_item_strange_wand</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_COUNTER_SPELL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SPEED_SCROLL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_FRENZY,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_PROTECTION,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_MANA,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_HEALING,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_ARMAGEDDON,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_BEASTS,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_SLAYING,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_SANCTUARY,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_INSULATION,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_DISPEL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_MASS_TELEPORT,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_CORRUPTION,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_BANSHEE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SCRO_WEAKNESS,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_HP,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_MANA,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_LEECH,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_REGENERATION,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_CLARITY_OMEN,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_SOURCE_MANA,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_TRANQUILITY,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_GREATER_PTN_HP,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_ARCHMAGE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_BATTLEMASTER,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_EMPERORS_NEW_VIAL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_CONVERSION,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_SHIELD,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_RAMPART,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_DODGE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_LESSER_PTN_INVUL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_INVUL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_STONE_SKIN,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_MAGIC_POWER,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_SPELL_MASTERY,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_ARCANE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_RAGING_CASTER,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_SPELL_PIERCING,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_VIAL_UNSTABLE_POWER,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_AGILITY,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_KEEN,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_PTN_SWIFTNESS,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_SIMPLE_HEAL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_DISPEL,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_HEALING_WARD,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_INNER_FIRE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_CHAIN_LTN,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_DEATH_FINGER,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_CHARM_SIPHON_LIFE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_DEMONIC_RUNE,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>id:IATTR_USE_STRANGE_WAND,lo:0,hi:0</t>
+  </si>
+  <si>
+    <t>埃兰总是能在法师决斗中胜出，也许是因为他很有钱。</t>
+  </si>
+  <si>
+    <t>“埃拉西亚的覆灭。”</t>
+  </si>
+  <si>
+    <t>有些在战场中看起来很厉害但是从未出过手的人物也许是拿这个卷轴伪装的。</t>
+  </si>
+  <si>
+    <t>成本低廉，但是很实用的卷轴。</t>
+  </si>
+  <si>
+    <t>“如果能穿越障碍就不只这个价了。”</t>
+  </si>
+  <si>
+    <t>使用这个卷轴的时候，记得捂住耳朵。</t>
+  </si>
+  <si>
+    <t>萨尔花了很多年的时间才弄明白当年集中营里面的虚弱事件竟然是有人利用这张卷轴在捣鬼！</t>
+  </si>
+  <si>
+    <t>似乎有奇异的声音在呼唤，你敢回应吗？</t>
+  </si>
+  <si>
+    <t>蚀刻在这些魔杖上复杂的魔法阵以一种不可思议的方式维持着平衡，你很难想象出一种既能引导出里面的魔力又不摧毁这些魔杖的方法。</t>
   </si>
 </sst>
 </file>
@@ -1537,11 +2191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="4" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3258,6 +3912,987 @@
         <v>178</v>
       </c>
     </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F84" t="s">
+        <v>596</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F90" t="s">
+        <v>597</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F93" t="s">
+        <v>598</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F94" t="s">
+        <v>599</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F96" t="s">
+        <v>600</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F98" t="s">
+        <v>601</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F99" t="s">
+        <v>602</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F134" t="s">
+        <v>603</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F135" t="s">
+        <v>604</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
